--- a/pred_ohlcv/54_21/2019-10-22 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>30380.37110000001</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>30683.56510000001</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>18871.56510000001</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>30161.68230000001</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,7 +756,7 @@
         <v>28442.70540000001</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>65842.4167</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>65842.4167</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>60842.4167</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>62929.4188</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>52929.4188</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>52929.4188</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>52929.4188</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>52929.4188</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>52939.4188</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>52939.4188</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>52939.4188</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>52939.4188</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>52939.4188</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>47939.4188</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>47939.4188</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>47939.4188</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>47939.4188</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>47939.4188</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>47939.4188</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>47949.4188</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>47949.4188</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>47949.4188</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>47949.4188</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>48166.8793</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>48176.8793</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>48382.8533</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>47812.9533</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>47822.9533</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>39620.6102</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>49582.6649</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>59582.6649</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>51662.6649</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-5936.594299999997</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-9565.650199999996</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2511.016400000004</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>7511.016300000004</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>8291.016300000003</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>8291.016300000003</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>383649.915965147</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>382859.915965147</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>371557.018865147</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>371995.018865147</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>371995.018865147</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>371995.018865147</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>362721.770065147</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>374277.332865147</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>374277.332865147</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>373991.775265147</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>368986.657565147</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>368996.657565147</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>353882.391665147</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>353882.391665147</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-22 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>30380.37110000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>30390.37110000001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>30683.56510000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>27903.56510000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>18871.56510000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>30161.68230000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,7 +756,7 @@
         <v>28442.70540000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>65842.4167</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>65842.4167</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>60842.4167</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>62929.4188</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>52929.4188</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>52929.4188</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>52929.4188</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>52929.4188</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>52939.4188</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>52939.4188</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>52939.4188</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>52939.4188</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>52939.4188</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>47939.4188</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>47939.4188</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>47939.4188</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>47939.4188</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>47939.4188</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>47939.4188</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>47949.4188</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>47949.4188</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>48166.8793</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>48176.8793</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>48382.8533</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>47812.9533</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>47822.9533</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>39620.6102</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>49582.6649</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>59582.6649</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>51662.6649</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-5936.594299999997</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-9565.650199999996</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2511.016400000004</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>7511.016300000004</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>8291.016300000003</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>8291.016300000003</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>353431.0488651471</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>410069.7385651471</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>406939.7385651471</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>406939.7385651471</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>463313.8302651471</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>462642.1875651471</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>462642.1875651471</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>376002.7241651471</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>376697.7241651471</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>371557.018865147</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>371995.018865147</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>371995.018865147</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>371995.018865147</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>362721.770065147</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>374277.332865147</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>374277.332865147</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>373991.775265147</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>368986.657565147</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>368996.657565147</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>353882.391665147</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>353882.391665147</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>291205.462665147</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>269211.2119651471</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
